--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_0_33.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_0_33.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.501110429875553e-12</v>
+        <v>4.94765117764473e-10</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.501110429875553e-12</v>
+        <v>4.94765117764473e-10</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>81344.6332415433</v>
+        <v>5495828.011191609</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>81344.6332415433</v>
+        <v>5495828.011191609</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1417024178.869831</v>
+        <v>50721820.53112009</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13918.59781042239</v>
+        <v>1038696.930177628</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>27823.82121256517</v>
+        <v>2077393.860355255</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>41734.75404594481</v>
+        <v>3116090.790532884</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>55946.62912275408</v>
+        <v>4152814.764659021</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>70144.79278701774</v>
+        <v>5190470.62783348</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>84342.95645128141</v>
+        <v>6228126.491007937</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>98541.10272865751</v>
+        <v>7265782.354182391</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>112739.2663929212</v>
+        <v>8303438.217356844</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>126937.4300571849</v>
+        <v>9341094.080531297</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>141135.5937214486</v>
+        <v>10378749.94370575</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>155333.7573857123</v>
+        <v>11416405.8068802</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>169531.9036630884</v>
+        <v>12454061.67005466</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>183730.0673273521</v>
+        <v>13491717.53322913</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>198549.6234359933</v>
+        <v>14466792.88928849</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>213383.9206406348</v>
+        <v>15440400.07047385</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>177</v>
@@ -27052,13 +27052,13 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>177</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>1374</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
